--- a/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministration-status.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-medicationadministration-status</t>
+    <t>http://hl7.no/fhir/ig/mal/ValueSet/lmdi-medicationadministration-status</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>HL7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>HL7 Norge (https://www.hl7.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
